--- a/KotteGraph.xlsx
+++ b/KotteGraph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S525769\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S525802\Desktop\DIS\DIS---Walmart-Store---P07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,8 +88,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -151,180 +179,11 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Store</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -353,91 +212,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4.468</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.468</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.468</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.468</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>3.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.2110000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>3.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.101</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4.2110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>3.907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4.0659999999999998</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.9359999999999999</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9340000000000002</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.907</c:v>
+                  <c:v>4.2110000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.907</c:v>
+                  <c:v>4.468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.907</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.907</c:v>
@@ -446,46 +305,46 @@
                   <c:v>3.907</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.907</c:v>
+                  <c:v>3.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.907</c:v>
+                  <c:v>4.468</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.907</c:v>
+                  <c:v>3.8809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.907</c:v>
+                  <c:v>4.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.907</c:v>
+                  <c:v>3.9340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.907</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.907</c:v>
+                  <c:v>4.468</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3.907</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>4.101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>3.907</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.8809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.8809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.8450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.8450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8450000000000002</c:v>
+                  <c:v>4.0659999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,18 +359,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="233530168"/>
-        <c:axId val="233530560"/>
+        <c:axId val="311329504"/>
+        <c:axId val="311328328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233530168"/>
+        <c:axId val="311329504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -548,7 +405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233530560"/>
+        <c:crossAx val="311328328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233530560"/>
+        <c:axId val="311328328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233530168"/>
+        <c:crossAx val="311329504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,7 +586,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -837,6 +694,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -847,6 +709,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -878,6 +745,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -933,23 +803,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1054,8 +923,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1187,20 +1056,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1237,20 +1105,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1538,7 +1406,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,159 +1425,159 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.468</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4.468</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.468</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4.468</v>
+        <v>3.8809999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4.468</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4.468</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.2110000000000003</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4.2110000000000003</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>4.2110000000000003</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>4.2110000000000003</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4.101</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4.101</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>4.101</v>
+        <v>3.8450000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>4.101</v>
+        <v>4.0659999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>4.101</v>
+        <v>4.2110000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>4.101</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>4.0659999999999998</v>
+        <v>3.8450000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4.0659999999999998</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>4.0659999999999998</v>
+        <v>4.2110000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>4.0659999999999998</v>
@@ -1717,79 +1585,79 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>4.0659999999999998</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>3.9359999999999999</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>3.9359999999999999</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>3.9359999999999999</v>
+        <v>4.2110000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>3.9359999999999999</v>
+        <v>4.0659999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>3.9340000000000002</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3.907</v>
+        <v>4.2110000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>3.907</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>3.907</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>3.907</v>
@@ -1797,7 +1665,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>3.907</v>
@@ -1805,47 +1673,47 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>3.907</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>3.907</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>3.907</v>
+        <v>3.8809999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>3.907</v>
+        <v>4.0659999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3.907</v>
+        <v>3.9340000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3.907</v>
@@ -1853,10 +1721,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>3.907</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,39 +1737,39 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>3.907</v>
+        <v>4.101</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>3.8809999999999998</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>3.8809999999999998</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>3.8450000000000002</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>3.8450000000000002</v>
@@ -1909,16 +1777,16 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>3.8450000000000002</v>
+        <v>4.0659999999999998</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B46">
     <sortState ref="A2:B46">
-      <sortCondition descending="1" ref="B1:B46"/>
+      <sortCondition ref="A1:A46"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
